--- a/vertx-pin/zero-graphic/src/main/resources/plugin/graphic/oob/data/g.menu.xlsx
+++ b/vertx-pin/zero-graphic/src/main/resources/plugin/graphic/oob/data/g.menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-graphic/src/main/resources/plugin/graphic/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A012B2-11DB-3744-91C4-0137C0BD0862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718A41BB-4261-F64A-B04C-41AF713D0B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="-3300" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="58860" yWindow="-6180" windowWidth="46400" windowHeight="27100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -103,16 +106,6 @@
     <t>metadata</t>
   </si>
   <si>
-    <t>SIDE-MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7cfa352-0b7f-4b1d-91ba-8de91468ee4c</t>
-  </si>
-  <si>
-    <t>ae5101f9-6ca2-4559-8a59-e100c06c300e</t>
-  </si>
-  <si>
     <t>zero.develop.graphic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,13 +120,133 @@
   <si>
     <t>/epic/topology</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPAND</t>
+  </si>
+  <si>
+    <t>reconciliation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV-MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.g.relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.g.tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图管理/发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.g.workflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树型图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thunderbolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/g/relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/g/tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/g/workflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/g/management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「旧」图管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7861a7ae-2cb0-49e6-9a57-01d0ecf6ebed</t>
+  </si>
+  <si>
+    <t>a52f5024-a481-4777-8b04-a8e27a5af72a</t>
+  </si>
+  <si>
+    <t>70757329-ff2f-4647-a710-f11b3dea7975</t>
+  </si>
+  <si>
+    <t>dc36e977-e6a6-4f21-9219-cee6556807b6</t>
+  </si>
+  <si>
+    <t>48873c15-49fa-41f3-9e7f-844bcc1256f7</t>
+  </si>
+  <si>
+    <t>4cbd5021-2a70-4dab-bdef-91ca74d53fa6</t>
+  </si>
+  <si>
+    <t>图设计器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.g.management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/g/designer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.g.designer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b189936e-ac95-4cb6-803a-f6402ded6caa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +295,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -259,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,6 +423,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -618,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A5:XFD16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -724,33 +848,211 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>A$6</f>
+        <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D5" s="9">
-        <v>1025</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="16">
         <v>2</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="G6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="12"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>A$6</f>
+        <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1005</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f t="shared" ref="B8:B11" si="0">A$6</f>
+        <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1015</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1020</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1025</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-graphic/src/main/resources/plugin/graphic/oob/data/g.menu.xlsx
+++ b/vertx-pin/zero-graphic/src/main/resources/plugin/graphic/oob/data/g.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-graphic/src/main/resources/plugin/graphic/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718A41BB-4261-F64A-B04C-41AF713D0B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF18262-EA21-FD46-8CF4-220929B509D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58860" yWindow="-6180" windowWidth="46400" windowHeight="27100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -106,10 +106,6 @@
     <t>metadata</t>
   </si>
   <si>
-    <t>zero.develop.graphic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +236,10 @@
   </si>
   <si>
     <t>b189936e-ac95-4cb6-803a-f6402ded6caa</t>
+  </si>
+  <si>
+    <t>old.zero.develop.graphic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,10 +422,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -745,7 +745,7 @@
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -771,16 +771,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
@@ -848,14 +848,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>A$6</f>
         <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9">
         <v>2000</v>
@@ -864,26 +864,26 @@
         <v>2</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6">
         <v>50000</v>
@@ -892,28 +892,28 @@
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$6</f>
         <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="9">
         <v>1005</v>
@@ -922,28 +922,28 @@
         <v>2</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" ref="B8:B11" si="0">A$6</f>
         <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="9">
         <v>1010</v>
@@ -952,28 +952,28 @@
         <v>2</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9">
         <v>1015</v>
@@ -982,28 +982,28 @@
         <v>2</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9">
         <v>1020</v>
@@ -1012,28 +1012,28 @@
         <v>2</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>a52f5024-a481-4777-8b04-a8e27a5af72a</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="9">
         <v>1025</v>
@@ -1042,16 +1042,16 @@
         <v>2</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
